--- a/data/case1/16/P_device_4.xlsx
+++ b/data/case1/16/P_device_4.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.069252759740158917</v>
+        <v>-0.060437723747241136</v>
       </c>
       <c r="B1" s="0">
-        <v>0.06925275537522943</v>
+        <v>0.06043772172119339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.01707734776598676</v>
+        <v>0.013116550131572306</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.017077352380529476</v>
+        <v>-0.013116552290001597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.052078722939013451</v>
+        <v>0.053351735473098724</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.052078727469343902</v>
+        <v>-0.05335173757708405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.076470695412012624</v>
+        <v>-0.077494404745110906</v>
       </c>
       <c r="B4" s="0">
-        <v>0.076470691064824528</v>
+        <v>0.07749440273053454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.010090962110837246</v>
+        <v>0.0092644102004602255</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.010090966627937202</v>
+        <v>-0.0092644122988238473</v>
       </c>
     </row>
   </sheetData>
